--- a/data/rob_secondary_2024.01.23.xlsx
+++ b/data/rob_secondary_2024.01.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC1F0F-20DC-FD43-9F34-C87695FAE501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0AF72B-10DC-C840-8826-22BEEADF8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="22220" windowHeight="15700" xr2:uid="{5B321493-8628-1E4C-935B-6CFC743B201E}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>cognitive</t>
-  </si>
-  <si>
     <t>hypotension</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>cognition</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,22 +706,22 @@
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>5</v>
@@ -731,15 +731,15 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
@@ -1027,11 +1027,11 @@
         <v>5</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1057,11 +1057,11 @@
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>15</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>21</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>20</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>13</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>20</v>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="50" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>20</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="52" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>20</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>13</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>14</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>21</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>16</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="65" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="66" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="67" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>20</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>13</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="69" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>14</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="70" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>21</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>15</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="72" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>22</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>22</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="74" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>16</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="75" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>22</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="76" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>22</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="77" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>19</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="78" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>14</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="79" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="80" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>15</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>14</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="82" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>21</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="83" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>15</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="84" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>22</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="85" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>16</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="86" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>17</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="87" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>22</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>13</v>

--- a/data/rob_secondary_2024.01.23.xlsx
+++ b/data/rob_secondary_2024.01.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0AF72B-10DC-C840-8826-22BEEADF8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E782872-DB5D-E449-A330-36D8A380F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="22220" windowHeight="15700" xr2:uid="{5B321493-8628-1E4C-935B-6CFC743B201E}"/>
+    <workbookView xWindow="21260" yWindow="-21100" windowWidth="22220" windowHeight="15700" xr2:uid="{5B321493-8628-1E4C-935B-6CFC743B201E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572FBEC7-01CF-B040-AE68-30BAA13155EF}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
